--- a/metrics/MAPE/average time/Angina.xlsx
+++ b/metrics/MAPE/average time/Angina.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02168059973643672</v>
+        <v>0.02179089007090559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02179146106682209</v>
+        <v>0.02179877983476582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02149476627883372</v>
+        <v>0.02141188073211859</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01668616242070118</v>
+        <v>0.01668649670231177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01668659317426071</v>
+        <v>0.01668566223616362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01668599336961622</v>
+        <v>0.01668623451660679</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0323305425970233</v>
+        <v>0.03326440722469117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03399817282000037</v>
+        <v>0.03358823829857942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03355761209645278</v>
+        <v>0.03401481778935291</v>
       </c>
     </row>
   </sheetData>
